--- a/Project_QEA_Hackathon/src/test/resources/ExcelData/Inputread.xlsx
+++ b/Project_QEA_Hackathon/src/test/resources/ExcelData/Inputread.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5037DC9-E023-452E-978B-61DC635A8DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB1FF6-3803-490D-8E75-2DEC28BC4243}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="870" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>44301</v>
+        <v>44545</v>
       </c>
       <c r="D2" s="1">
-        <v>44306</v>
+        <v>44550</v>
       </c>
     </row>
   </sheetData>
